--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.46</t>
+    <t xml:space="preserve">EA 23.54</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.54</t>
+    <t xml:space="preserve">EA 23.55 fix 2</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.55 fix 2</t>
+    <t xml:space="preserve">EA 23.61 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.61 fix 1</t>
+    <t xml:space="preserve">EA 23.66 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.66 fix 1</t>
+    <t xml:space="preserve">EA 23.67</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.67</t>
+    <t xml:space="preserve">EA 23.74</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.74</t>
+    <t xml:space="preserve">EA 23.75 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.75 fix 1</t>
+    <t xml:space="preserve">EA 23.81 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.81 Patch 1</t>
+    <t xml:space="preserve">EA 23.92 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.92 Patch 2</t>
+    <t xml:space="preserve">EA 23.99 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.99 Patch 1</t>
+    <t xml:space="preserve">EA 23.108</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.108</t>
+    <t xml:space="preserve">EA 23.109 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.109 Patch 2</t>
+    <t xml:space="preserve">EA 23.120</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.120</t>
+    <t xml:space="preserve">EA 23.129</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.129</t>
+    <t xml:space="preserve">EA 23.140</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="305">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -911,6 +911,33 @@
   </si>
   <si>
     <t xml:space="preserve">海底の床</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">초콜릿 바닥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chocolate floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">チョコレートの床</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">비스킷 바닥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biscuit floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ビスケットの床</t>
   </si>
 </sst>
 </file>
@@ -923,7 +950,7 @@
   <fonts count="4">
     <font>
       <sz val="10"/>
-      <name val="Noto Sans KR"/>
+      <name val="나눔고딕"/>
       <family val="2"/>
       <charset val="129"/>
     </font>
@@ -1139,17 +1166,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H120" activeCellId="0" sqref="H120"/>
+      <selection pane="bottomLeft" activeCell="F122" activeCellId="0" sqref="F122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.9609375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="0" width="14.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3258,6 +3285,40 @@
       </c>
       <c r="E125" s="0" t="s">
         <v>295</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="D127" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="E127" s="0" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.188 Patch 2</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.200</t>
+    <t xml:space="preserve">EA 23.209 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.209 Patch 2</t>
+    <t xml:space="preserve">EA 23.212</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.212</t>
+    <t xml:space="preserve">EA 23.222</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.222</t>
+    <t xml:space="preserve">EA 23.229 Patch 3</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
